--- a/public/archivo_modelo/modelo_carga_almacen.xlsx
+++ b/public/archivo_modelo/modelo_carga_almacen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6D118D-F7B5-4D92-A889-C1D6037AAF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAB601-FF31-4A2A-9FD1-B91E8E401D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C1FE13AF-A44F-479C-AC50-DDD0EE21C8CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1FE13AF-A44F-479C-AC50-DDD0EE21C8CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>O/C</t>
   </si>
@@ -45,12 +45,6 @@
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>MARCA</t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
     <t>COLOR</t>
   </si>
   <si>
@@ -73,6 +67,15 @@
   </si>
   <si>
     <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>IDCATEGORIA</t>
+  </si>
+  <si>
+    <t>IDMODELO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
   </si>
 </sst>
 </file>
@@ -491,53 +494,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C47B3BB-A5BF-4024-A475-E4B59BE139D7}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
